--- a/src/test/test_data/bcgroup.xlsx
+++ b/src/test/test_data/bcgroup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\QAprojekti\Automation_projekti\bcgroup\src\test\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37E0D2B-E91A-4500-AEB2-318A4735722C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB7923E-AF6C-4020-A22D-C252C552D220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4350" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{47DA7BBC-4371-411F-99D1-AFF8C5BF69E2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{47DA7BBC-4371-411F-99D1-AFF8C5BF69E2}"/>
   </bookViews>
   <sheets>
     <sheet name="registration" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="LaptopoviTableti" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2318" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2347" uniqueCount="470">
   <si>
     <t>tc_id</t>
   </si>
@@ -1361,9 +1362,6 @@
     <t>filteredTitle</t>
   </si>
   <si>
-    <t>TOSHIBA</t>
-  </si>
-  <si>
     <t>100.000</t>
   </si>
   <si>
@@ -1388,27 +1386,9 @@
     <t>OPERATIVNI SISTEM</t>
   </si>
   <si>
-    <t>Office</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>32GB</t>
-  </si>
-  <si>
-    <t>2TB</t>
-  </si>
-  <si>
     <t>Integrisana</t>
   </si>
   <si>
-    <t>Mac OS</t>
-  </si>
-  <si>
-    <t>AMD Athlon</t>
-  </si>
-  <si>
     <t>LENOVO V15 G4 AMN (Business Black) Full HD, Ryzen 5 7520U, 16GB, 512GB SSD (82YU00QYYA)</t>
   </si>
   <si>
@@ -1445,17 +1425,29 @@
     <t>BENQ MX560</t>
   </si>
   <si>
-    <t>43'' / 109cm</t>
-  </si>
-  <si>
     <t>4K - Ultra HD (3.840x2.160)</t>
+  </si>
+  <si>
+    <t>SSD 512GB</t>
+  </si>
+  <si>
+    <t>Core i3</t>
+  </si>
+  <si>
+    <t>8GB</t>
+  </si>
+  <si>
+    <t>LENOVO V15 G2 ITL (Black) Full HD, i3-1115G4, 8GB, 512GB SSD (82KB000FYA)</t>
+  </si>
+  <si>
+    <t>Vaša porudžbina je uspešno primljena !</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1512,6 +1504,15 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1600,10 +1601,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1645,6 +1647,9 @@
     <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1675,8 +1680,12 @@
     <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1992,7 +2001,7 @@
   <dimension ref="A1:AQ20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:I13"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2036,55 +2045,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
-      <c r="AO1" s="22"/>
-      <c r="AP1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="23"/>
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="23"/>
+      <c r="AO1" s="23"/>
+      <c r="AP1" s="23"/>
     </row>
     <row r="2" spans="1:42" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
     </row>
     <row r="3" spans="1:42" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -2948,7 +2957,7 @@
   <dimension ref="A1:AH30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2987,42 +2996,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
     </row>
     <row r="2" spans="1:34" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
@@ -3095,7 +3104,7 @@
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="19" t="s">
         <v>59</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -3132,7 +3141,7 @@
         <v>66</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
@@ -3194,7 +3203,7 @@
         <v>66</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
@@ -3258,7 +3267,7 @@
         <v>66</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
@@ -3322,7 +3331,7 @@
         <v>66</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
@@ -3386,7 +3395,7 @@
         <v>66</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
@@ -3450,7 +3459,7 @@
         <v>66</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
@@ -3512,7 +3521,7 @@
         <v>67</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
@@ -3576,7 +3585,7 @@
         <v>67</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
@@ -3640,7 +3649,7 @@
         <v>67</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
@@ -3704,7 +3713,7 @@
         <v>67</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
@@ -3768,7 +3777,7 @@
         <v>67</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
@@ -3830,7 +3839,7 @@
         <v>68</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
@@ -3894,7 +3903,7 @@
         <v>68</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
@@ -3958,7 +3967,7 @@
         <v>68</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
@@ -4022,7 +4031,7 @@
         <v>68</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
@@ -4084,7 +4093,7 @@
         <v>69</v>
       </c>
       <c r="N19" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
@@ -4148,7 +4157,7 @@
         <v>69</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
@@ -4212,7 +4221,7 @@
         <v>69</v>
       </c>
       <c r="N21" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
@@ -4274,7 +4283,7 @@
         <v>70</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
@@ -4338,7 +4347,7 @@
         <v>70</v>
       </c>
       <c r="N23" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
@@ -4402,7 +4411,7 @@
         <v>70</v>
       </c>
       <c r="N24" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
@@ -4464,7 +4473,7 @@
         <v>71</v>
       </c>
       <c r="N25" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
@@ -4528,7 +4537,7 @@
         <v>71</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
@@ -4708,8 +4717,11 @@
     <mergeCell ref="A1:AH1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{3D129F04-DAEA-40B1-B038-664A2F6ED2CD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4718,7 +4730,7 @@
   <dimension ref="A1:AH21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4756,42 +4768,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
     </row>
     <row r="2" spans="1:34" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
@@ -4879,7 +4891,7 @@
         <v>38</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -4927,7 +4939,7 @@
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
@@ -4973,7 +4985,7 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
@@ -5019,7 +5031,7 @@
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
@@ -5067,7 +5079,7 @@
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
@@ -5115,7 +5127,7 @@
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
@@ -5163,7 +5175,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
@@ -5613,382 +5625,384 @@
     <mergeCell ref="A1:AH1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{20927996-6E0B-4810-BBD1-6EF9FFB473BB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58940E01-C197-496A-9931-F470B9BBA0AD}">
-  <dimension ref="A1:BM34"/>
+  <dimension ref="A1:BL35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+    <sheetView tabSelected="1" topLeftCell="U25" workbookViewId="0">
+      <selection activeCell="Z38" sqref="Z38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" style="2" customWidth="1"/>
-    <col min="2" max="3" width="10.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="1" customWidth="1"/>
-    <col min="5" max="7" width="10.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="20.42578125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="24.140625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="17.28515625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.42578125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="12.42578125" style="1" customWidth="1"/>
-    <col min="23" max="24" width="16" style="1" customWidth="1"/>
-    <col min="25" max="25" width="43.5703125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="25.28515625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="21" style="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" customWidth="1"/>
-    <col min="29" max="29" width="17.7109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="21" style="1" customWidth="1"/>
-    <col min="31" max="31" width="24" style="1" customWidth="1"/>
-    <col min="32" max="32" width="20" style="1" customWidth="1"/>
-    <col min="33" max="34" width="17.42578125" style="1" customWidth="1"/>
-    <col min="35" max="35" width="24" style="1" customWidth="1"/>
-    <col min="36" max="37" width="21.5703125" style="1" customWidth="1"/>
-    <col min="38" max="39" width="19.140625" style="1" customWidth="1"/>
-    <col min="40" max="40" width="19.42578125" style="1" customWidth="1"/>
-    <col min="41" max="41" width="19.5703125" style="1" customWidth="1"/>
-    <col min="42" max="43" width="19.140625" style="1" customWidth="1"/>
-    <col min="44" max="44" width="16.5703125" style="1" customWidth="1"/>
-    <col min="45" max="46" width="16.7109375" style="1" customWidth="1"/>
-    <col min="47" max="47" width="17.140625" style="1" customWidth="1"/>
-    <col min="48" max="48" width="16.42578125" style="1" customWidth="1"/>
-    <col min="49" max="49" width="16.140625" style="1" customWidth="1"/>
-    <col min="50" max="50" width="21.140625" style="1" customWidth="1"/>
-    <col min="51" max="51" width="30.85546875" style="1" customWidth="1"/>
-    <col min="52" max="52" width="17" style="1" customWidth="1"/>
-    <col min="53" max="53" width="15.7109375" style="1" customWidth="1"/>
-    <col min="54" max="54" width="14.42578125" style="1" customWidth="1"/>
-    <col min="55" max="62" width="9.140625" style="1"/>
-    <col min="63" max="64" width="20.85546875" style="1" customWidth="1"/>
-    <col min="65" max="65" width="35" style="1" customWidth="1"/>
-    <col min="66" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="10.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="1" customWidth="1"/>
+    <col min="4" max="6" width="10.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="24.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="17.28515625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.42578125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="12.42578125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="19.140625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="16" style="1" customWidth="1"/>
+    <col min="24" max="24" width="43.5703125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="25.28515625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="21" style="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="17.7109375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="21" style="1" customWidth="1"/>
+    <col min="30" max="30" width="24" style="1" customWidth="1"/>
+    <col min="31" max="31" width="20" style="1" customWidth="1"/>
+    <col min="32" max="33" width="17.42578125" style="1" customWidth="1"/>
+    <col min="34" max="34" width="24" style="1" customWidth="1"/>
+    <col min="35" max="36" width="21.5703125" style="1" customWidth="1"/>
+    <col min="37" max="38" width="19.140625" style="1" customWidth="1"/>
+    <col min="39" max="39" width="19.42578125" style="1" customWidth="1"/>
+    <col min="40" max="40" width="19.5703125" style="1" customWidth="1"/>
+    <col min="41" max="42" width="19.140625" style="1" customWidth="1"/>
+    <col min="43" max="43" width="16.5703125" style="1" customWidth="1"/>
+    <col min="44" max="45" width="16.7109375" style="1" customWidth="1"/>
+    <col min="46" max="46" width="17.140625" style="1" customWidth="1"/>
+    <col min="47" max="47" width="16.42578125" style="1" customWidth="1"/>
+    <col min="48" max="48" width="16.140625" style="1" customWidth="1"/>
+    <col min="49" max="49" width="21.140625" style="1" customWidth="1"/>
+    <col min="50" max="50" width="30.85546875" style="1" customWidth="1"/>
+    <col min="51" max="51" width="17" style="1" customWidth="1"/>
+    <col min="52" max="52" width="15.7109375" style="1" customWidth="1"/>
+    <col min="53" max="53" width="14.42578125" style="1" customWidth="1"/>
+    <col min="54" max="61" width="9.140625" style="1"/>
+    <col min="62" max="63" width="20.85546875" style="1" customWidth="1"/>
+    <col min="64" max="64" width="35" style="1" customWidth="1"/>
+    <col min="65" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="28"/>
-      <c r="AO1" s="28"/>
-      <c r="AP1" s="28"/>
-      <c r="AQ1" s="28"/>
-      <c r="AR1" s="28"/>
-      <c r="AS1" s="28"/>
-      <c r="AT1" s="28"/>
-      <c r="AU1" s="28"/>
-      <c r="AV1" s="28"/>
-      <c r="AW1" s="28"/>
-      <c r="AX1" s="28"/>
-      <c r="AY1" s="28"/>
-      <c r="AZ1" s="28"/>
-      <c r="BA1" s="28"/>
-      <c r="BB1" s="28"/>
-      <c r="BC1" s="28"/>
-      <c r="BD1" s="28"/>
-      <c r="BE1" s="28"/>
-      <c r="BF1" s="28"/>
-      <c r="BG1" s="28"/>
-      <c r="BH1" s="28"/>
-      <c r="BI1" s="28"/>
-      <c r="BJ1" s="28"/>
-      <c r="BK1" s="28"/>
-      <c r="BL1" s="28"/>
-      <c r="BM1" s="28"/>
-    </row>
-    <row r="2" spans="1:65" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="30"/>
+      <c r="AM1" s="30"/>
+      <c r="AN1" s="30"/>
+      <c r="AO1" s="30"/>
+      <c r="AP1" s="30"/>
+      <c r="AQ1" s="30"/>
+      <c r="AR1" s="30"/>
+      <c r="AS1" s="30"/>
+      <c r="AT1" s="30"/>
+      <c r="AU1" s="30"/>
+      <c r="AV1" s="30"/>
+      <c r="AW1" s="30"/>
+      <c r="AX1" s="30"/>
+      <c r="AY1" s="30"/>
+      <c r="AZ1" s="30"/>
+      <c r="BA1" s="30"/>
+      <c r="BB1" s="30"/>
+      <c r="BC1" s="30"/>
+      <c r="BD1" s="30"/>
+      <c r="BE1" s="30"/>
+      <c r="BF1" s="30"/>
+      <c r="BG1" s="30"/>
+      <c r="BH1" s="30"/>
+      <c r="BI1" s="30"/>
+      <c r="BJ1" s="30"/>
+      <c r="BK1" s="30"/>
+      <c r="BL1" s="30"/>
+    </row>
+    <row r="2" spans="1:64" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
     </row>
-    <row r="3" spans="1:65" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>23</v>
+        <v>391</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>398</v>
+        <v>111</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>111</v>
+        <v>315</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="P3" s="17" t="s">
-        <v>331</v>
+        <v>66</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S3" s="17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T3" s="17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U3" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V3" s="17" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="W3" s="17" t="s">
-        <v>11</v>
+        <v>356</v>
       </c>
       <c r="X3" s="17" t="s">
-        <v>356</v>
+        <v>64</v>
       </c>
       <c r="Y3" s="17" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="Z3" s="17" t="s">
-        <v>46</v>
+        <v>389</v>
       </c>
       <c r="AA3" s="17" t="s">
-        <v>389</v>
+        <v>124</v>
       </c>
       <c r="AB3" s="17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AC3" s="17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AD3" s="17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AE3" s="17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AF3" s="17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG3" s="17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AH3" s="17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AI3" s="17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AJ3" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK3" s="17" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AL3" s="17" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="AM3" s="17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN3" s="17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AO3" s="17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AP3" s="17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AQ3" s="17" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AR3" s="17" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="AS3" s="17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AT3" s="17" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AU3" s="17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AV3" s="17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AW3" s="17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AX3" s="17" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AY3" s="17" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AZ3" s="17" t="s">
-        <v>204</v>
+        <v>277</v>
       </c>
       <c r="BA3" s="17" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="BB3" s="17" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="BC3" s="17" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="BD3" s="17" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="BE3" s="17" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="BF3" s="17" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="BG3" s="17" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BH3" s="17" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="BI3" s="17" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="BJ3" s="17" t="s">
-        <v>286</v>
+        <v>110</v>
       </c>
       <c r="BK3" s="17" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="BL3" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="BM3" s="17" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+      <c r="D4" s="9" t="s">
+        <v>394</v>
+      </c>
       <c r="E4" s="9" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>401</v>
+        <v>112</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="M4" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="N4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9" t="s">
+        <v>314</v>
+      </c>
       <c r="O4" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="P4" s="9" t="s">
         <v>327</v>
       </c>
+      <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
       <c r="S4" s="9"/>
@@ -5999,40 +6013,40 @@
       <c r="X4" s="9"/>
       <c r="Y4" s="9"/>
       <c r="Z4" s="9"/>
-      <c r="AA4" s="9"/>
+      <c r="AA4" s="9" t="s">
+        <v>114</v>
+      </c>
       <c r="AB4" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AC4" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AD4" s="9" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="AE4" s="9" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="AF4" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG4" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AH4" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AI4" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AJ4" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK4" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="AL4" s="9" t="s">
         <v>123</v>
       </c>
+      <c r="AL4" s="9"/>
       <c r="AM4" s="9"/>
       <c r="AN4" s="9"/>
       <c r="AO4" s="9"/>
@@ -6048,7 +6062,7 @@
       <c r="AY4" s="9"/>
       <c r="AZ4" s="9"/>
       <c r="BA4" s="9"/>
-      <c r="BB4" s="9"/>
+      <c r="BB4" s="5"/>
       <c r="BC4" s="5"/>
       <c r="BD4" s="5"/>
       <c r="BE4" s="5"/>
@@ -6056,103 +6070,104 @@
       <c r="BG4" s="5"/>
       <c r="BH4" s="5"/>
       <c r="BI4" s="5"/>
-      <c r="BJ4" s="5"/>
-      <c r="BK4" s="9" t="s">
-        <v>41</v>
+      <c r="BJ4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK4" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="BL4" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="BM4" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>394</v>
+      </c>
       <c r="E5" s="9" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>400</v>
+        <v>136</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>136</v>
+        <v>312</v>
       </c>
       <c r="L5" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="M5" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="N5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9" t="s">
+        <v>313</v>
+      </c>
       <c r="O5" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="P5" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="Q5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="R5" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T5" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U5" s="9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="V5" s="9" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="X5" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="Y5" s="9" t="s">
         <v>333</v>
       </c>
+      <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
+      <c r="AA5" s="9" t="s">
+        <v>137</v>
+      </c>
       <c r="AB5" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AC5" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AD5" s="9" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AE5" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AF5" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG5" s="9" t="s">
         <v>141</v>
       </c>
+      <c r="AG5" s="9"/>
       <c r="AH5" s="9"/>
       <c r="AI5" s="9"/>
       <c r="AJ5" s="9"/>
@@ -6173,7 +6188,7 @@
       <c r="AY5" s="9"/>
       <c r="AZ5" s="9"/>
       <c r="BA5" s="9"/>
-      <c r="BB5" s="9"/>
+      <c r="BB5" s="5"/>
       <c r="BC5" s="5"/>
       <c r="BD5" s="5"/>
       <c r="BE5" s="5"/>
@@ -6181,18 +6196,17 @@
       <c r="BG5" s="5"/>
       <c r="BH5" s="5"/>
       <c r="BI5" s="5"/>
-      <c r="BJ5" s="5"/>
-      <c r="BK5" s="9" t="s">
+      <c r="BJ5" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK5" s="5" t="s">
         <v>41</v>
       </c>
       <c r="BL5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="BM5" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -6204,100 +6218,100 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+      <c r="J6" s="9" t="s">
+        <v>145</v>
+      </c>
       <c r="K6" s="9" t="s">
-        <v>145</v>
+        <v>312</v>
       </c>
       <c r="L6" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="M6" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="N6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9" t="s">
+        <v>312</v>
+      </c>
       <c r="O6" s="9" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>329</v>
+        <v>84</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U6" s="9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>81</v>
+        <v>332</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>332</v>
+        <v>359</v>
       </c>
       <c r="X6" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="Y6" s="9" t="s">
         <v>338</v>
       </c>
+      <c r="Y6" s="9"/>
       <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
+      <c r="AA6" s="9" t="s">
+        <v>146</v>
+      </c>
       <c r="AB6" s="9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AC6" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AD6" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AE6" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF6" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG6" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AH6" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AI6" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AJ6" s="9" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="AK6" s="9" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="AL6" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AM6" s="9" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AN6" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AO6" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AP6" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="AQ6" s="9" t="s">
         <v>161</v>
       </c>
+      <c r="AQ6" s="9"/>
       <c r="AR6" s="9"/>
       <c r="AS6" s="9"/>
       <c r="AT6" s="9"/>
@@ -6308,7 +6322,7 @@
       <c r="AY6" s="9"/>
       <c r="AZ6" s="9"/>
       <c r="BA6" s="9"/>
-      <c r="BB6" s="9"/>
+      <c r="BB6" s="5"/>
       <c r="BC6" s="5"/>
       <c r="BD6" s="5"/>
       <c r="BE6" s="5"/>
@@ -6316,18 +6330,17 @@
       <c r="BG6" s="5"/>
       <c r="BH6" s="5"/>
       <c r="BI6" s="5"/>
-      <c r="BJ6" s="5"/>
-      <c r="BK6" s="9" t="s">
+      <c r="BJ6" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK6" s="5" t="s">
         <v>41</v>
       </c>
       <c r="BL6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="BM6" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -6339,129 +6352,129 @@
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="J7" s="9" t="s">
+        <v>169</v>
+      </c>
       <c r="K7" s="9" t="s">
-        <v>169</v>
+        <v>312</v>
       </c>
       <c r="L7" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="M7" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="N7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9" t="s">
+        <v>312</v>
+      </c>
       <c r="O7" s="9" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>330</v>
+        <v>85</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T7" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U7" s="9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="V7" s="9" t="s">
-        <v>81</v>
+        <v>332</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>332</v>
+        <v>360</v>
       </c>
       <c r="X7" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y7" s="9" t="s">
         <v>338</v>
       </c>
+      <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
+      <c r="AA7" s="9" t="s">
+        <v>170</v>
+      </c>
       <c r="AB7" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AC7" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AD7" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AE7" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AF7" s="9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG7" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AH7" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AI7" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AJ7" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AK7" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL7" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AM7" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AN7" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AO7" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AP7" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AQ7" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AR7" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AS7" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AT7" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AU7" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AV7" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AW7" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AX7" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AY7" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="AZ7" s="9" t="s">
         <v>194</v>
       </c>
+      <c r="AZ7" s="9"/>
       <c r="BA7" s="9"/>
-      <c r="BB7" s="9"/>
+      <c r="BB7" s="5"/>
       <c r="BC7" s="5"/>
       <c r="BD7" s="5"/>
       <c r="BE7" s="5"/>
@@ -6469,18 +6482,17 @@
       <c r="BG7" s="5"/>
       <c r="BH7" s="5"/>
       <c r="BI7" s="5"/>
-      <c r="BJ7" s="5"/>
-      <c r="BK7" s="9" t="s">
+      <c r="BJ7" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK7" s="5" t="s">
         <v>41</v>
       </c>
       <c r="BL7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="BM7" s="5" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -6492,67 +6504,67 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
+      <c r="J8" s="9" t="s">
+        <v>205</v>
+      </c>
       <c r="K8" s="9" t="s">
-        <v>205</v>
+        <v>312</v>
       </c>
       <c r="L8" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="M8" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="N8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9" t="s">
+        <v>312</v>
+      </c>
       <c r="O8" s="9" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>327</v>
+        <v>86</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U8" s="9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="V8" s="9" t="s">
-        <v>81</v>
+        <v>332</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>332</v>
+        <v>361</v>
       </c>
       <c r="X8" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y8" s="9" t="s">
         <v>339</v>
       </c>
+      <c r="Y8" s="9"/>
       <c r="Z8" s="9"/>
-      <c r="AA8" s="9"/>
+      <c r="AA8" s="9" t="s">
+        <v>211</v>
+      </c>
       <c r="AB8" s="9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AC8" s="9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AD8" s="9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AE8" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="AF8" s="9" t="s">
         <v>215</v>
       </c>
+      <c r="AF8" s="9"/>
       <c r="AG8" s="9"/>
       <c r="AH8" s="9"/>
       <c r="AI8" s="9"/>
@@ -6574,7 +6586,7 @@
       <c r="AY8" s="9"/>
       <c r="AZ8" s="9"/>
       <c r="BA8" s="9"/>
-      <c r="BB8" s="9"/>
+      <c r="BB8" s="5"/>
       <c r="BC8" s="5"/>
       <c r="BD8" s="5"/>
       <c r="BE8" s="5"/>
@@ -6582,18 +6594,17 @@
       <c r="BG8" s="5"/>
       <c r="BH8" s="5"/>
       <c r="BI8" s="5"/>
-      <c r="BJ8" s="5"/>
-      <c r="BK8" s="9" t="s">
+      <c r="BJ8" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK8" s="5" t="s">
         <v>41</v>
       </c>
       <c r="BL8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="BM8" s="5" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="9" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -6605,51 +6616,51 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
+      <c r="J9" s="9" t="s">
+        <v>206</v>
+      </c>
       <c r="K9" s="9" t="s">
-        <v>206</v>
+        <v>312</v>
       </c>
       <c r="L9" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="M9" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="N9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9" t="s">
+        <v>312</v>
+      </c>
       <c r="O9" s="9" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>328</v>
+        <v>72</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T9" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U9" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V9" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="W9" s="9" t="s">
         <v>332</v>
       </c>
+      <c r="W9" s="9"/>
       <c r="X9" s="9"/>
       <c r="Y9" s="9"/>
       <c r="Z9" s="9"/>
-      <c r="AA9" s="9"/>
-      <c r="AB9" s="9" t="s">
+      <c r="AA9" s="9" t="s">
         <v>223</v>
       </c>
+      <c r="AB9" s="9"/>
       <c r="AC9" s="9"/>
       <c r="AD9" s="9"/>
       <c r="AE9" s="9"/>
@@ -6675,7 +6686,7 @@
       <c r="AY9" s="9"/>
       <c r="AZ9" s="9"/>
       <c r="BA9" s="9"/>
-      <c r="BB9" s="9"/>
+      <c r="BB9" s="5"/>
       <c r="BC9" s="5"/>
       <c r="BD9" s="5"/>
       <c r="BE9" s="5"/>
@@ -6683,18 +6694,17 @@
       <c r="BG9" s="5"/>
       <c r="BH9" s="5"/>
       <c r="BI9" s="5"/>
-      <c r="BJ9" s="5"/>
-      <c r="BK9" s="9" t="s">
+      <c r="BJ9" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK9" s="5" t="s">
         <v>41</v>
       </c>
       <c r="BL9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="BM9" s="5" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -6706,71 +6716,71 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
+      <c r="J10" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="K10" s="9" t="s">
-        <v>207</v>
+        <v>312</v>
       </c>
       <c r="L10" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="M10" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="N10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9" t="s">
+        <v>312</v>
+      </c>
       <c r="O10" s="9" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q10" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="R10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="S10" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T10" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U10" s="9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="V10" s="9" t="s">
-        <v>81</v>
+        <v>332</v>
       </c>
       <c r="W10" s="9" t="s">
-        <v>332</v>
+        <v>358</v>
       </c>
       <c r="X10" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="Y10" s="9" t="s">
         <v>334</v>
       </c>
+      <c r="Y10" s="9"/>
       <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
+      <c r="AA10" s="9" t="s">
+        <v>216</v>
+      </c>
       <c r="AB10" s="9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AC10" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AD10" s="9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AE10" s="9" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AF10" s="9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AG10" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="AH10" s="9" t="s">
         <v>221</v>
       </c>
+      <c r="AH10" s="9"/>
       <c r="AI10" s="9"/>
       <c r="AJ10" s="9"/>
       <c r="AK10" s="9"/>
@@ -6790,7 +6800,7 @@
       <c r="AY10" s="9"/>
       <c r="AZ10" s="9"/>
       <c r="BA10" s="9"/>
-      <c r="BB10" s="9"/>
+      <c r="BB10" s="5"/>
       <c r="BC10" s="5"/>
       <c r="BD10" s="5"/>
       <c r="BE10" s="5"/>
@@ -6798,18 +6808,17 @@
       <c r="BG10" s="5"/>
       <c r="BH10" s="5"/>
       <c r="BI10" s="5"/>
-      <c r="BJ10" s="5"/>
-      <c r="BK10" s="9" t="s">
+      <c r="BJ10" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK10" s="5" t="s">
         <v>41</v>
       </c>
       <c r="BL10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="BM10" s="5" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="11" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -6821,94 +6830,94 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
+      <c r="J11" s="9" t="s">
+        <v>208</v>
+      </c>
       <c r="K11" s="9" t="s">
-        <v>208</v>
+        <v>312</v>
       </c>
       <c r="L11" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="M11" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="N11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9" t="s">
+        <v>312</v>
+      </c>
       <c r="O11" s="9" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>330</v>
+        <v>72</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="S11" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T11" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U11" s="9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="V11" s="9" t="s">
-        <v>81</v>
+        <v>332</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>332</v>
+        <v>362</v>
       </c>
       <c r="X11" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="Y11" s="9" t="s">
         <v>91</v>
       </c>
+      <c r="Y11" s="9"/>
       <c r="Z11" s="9"/>
-      <c r="AA11" s="9"/>
+      <c r="AA11" s="9" t="s">
+        <v>226</v>
+      </c>
       <c r="AB11" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AC11" s="9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AD11" s="9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AE11" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF11" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG11" s="9" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AH11" s="9" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AI11" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AJ11" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AK11" s="9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL11" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM11" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AN11" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="AO11" s="9" t="s">
         <v>233</v>
       </c>
+      <c r="AO11" s="9"/>
       <c r="AP11" s="9"/>
       <c r="AQ11" s="9"/>
       <c r="AR11" s="9"/>
@@ -6921,7 +6930,7 @@
       <c r="AY11" s="9"/>
       <c r="AZ11" s="9"/>
       <c r="BA11" s="9"/>
-      <c r="BB11" s="9"/>
+      <c r="BB11" s="5"/>
       <c r="BC11" s="5"/>
       <c r="BD11" s="5"/>
       <c r="BE11" s="5"/>
@@ -6929,18 +6938,17 @@
       <c r="BG11" s="5"/>
       <c r="BH11" s="5"/>
       <c r="BI11" s="5"/>
-      <c r="BJ11" s="5"/>
-      <c r="BK11" s="9" t="s">
+      <c r="BJ11" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK11" s="5" t="s">
         <v>41</v>
       </c>
       <c r="BL11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="BM11" s="5" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -6952,166 +6960,165 @@
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
+      <c r="J12" s="9" t="s">
+        <v>209</v>
+      </c>
       <c r="K12" s="9" t="s">
-        <v>209</v>
+        <v>312</v>
       </c>
       <c r="L12" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="M12" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="N12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9" t="s">
+        <v>312</v>
+      </c>
       <c r="O12" s="9" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>327</v>
+        <v>72</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="S12" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T12" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="V12" s="9" t="s">
-        <v>81</v>
+        <v>332</v>
       </c>
       <c r="W12" s="9" t="s">
-        <v>332</v>
+        <v>363</v>
       </c>
       <c r="X12" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="Y12" s="9" t="s">
         <v>334</v>
       </c>
+      <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
-      <c r="AA12" s="9"/>
+      <c r="AA12" s="9" t="s">
+        <v>240</v>
+      </c>
       <c r="AB12" s="9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AC12" s="9" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AD12" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AE12" s="9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF12" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG12" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AH12" s="9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AI12" s="9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AJ12" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AK12" s="9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL12" s="9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AM12" s="9" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AN12" s="9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AO12" s="9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AP12" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AQ12" s="9" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AR12" s="9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AS12" s="9" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AT12" s="9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AU12" s="9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AV12" s="9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AW12" s="9" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AX12" s="9" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AY12" s="9" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AZ12" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BA12" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="BB12" s="9" t="s">
         <v>266</v>
       </c>
+      <c r="BB12" s="5" t="s">
+        <v>267</v>
+      </c>
       <c r="BC12" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="BD12" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="BE12" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="BF12" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="BG12" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="BH12" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="BI12" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="BJ12" s="5"/>
-      <c r="BK12" s="9" t="s">
+      <c r="BI12" s="5"/>
+      <c r="BJ12" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK12" s="5" t="s">
         <v>41</v>
       </c>
       <c r="BL12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="BM12" s="5" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="13" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -7123,97 +7130,97 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
+      <c r="J13" s="9" t="s">
+        <v>210</v>
+      </c>
       <c r="K13" s="9" t="s">
-        <v>210</v>
+        <v>312</v>
       </c>
       <c r="L13" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="M13" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="N13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9" t="s">
+        <v>312</v>
+      </c>
       <c r="O13" s="9" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>328</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="S13" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T13" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U13" s="9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="V13" s="9" t="s">
-        <v>81</v>
+        <v>332</v>
       </c>
       <c r="W13" s="9" t="s">
-        <v>332</v>
+        <v>364</v>
       </c>
       <c r="X13" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="Y13" s="9" t="s">
         <v>340</v>
       </c>
+      <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
-      <c r="AA13" s="9"/>
+      <c r="AA13" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="AB13" s="9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AC13" s="9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AD13" s="9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AE13" s="9" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF13" s="9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG13" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AH13" s="9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AI13" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AJ13" s="9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AK13" s="9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL13" s="9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM13" s="9" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AN13" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AO13" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="AP13" s="9" t="s">
         <v>300</v>
       </c>
+      <c r="AP13" s="9"/>
       <c r="AQ13" s="9"/>
       <c r="AR13" s="9"/>
       <c r="AS13" s="9"/>
@@ -7225,7 +7232,7 @@
       <c r="AY13" s="9"/>
       <c r="AZ13" s="9"/>
       <c r="BA13" s="9"/>
-      <c r="BB13" s="9"/>
+      <c r="BB13" s="5"/>
       <c r="BC13" s="5"/>
       <c r="BD13" s="5"/>
       <c r="BE13" s="5"/>
@@ -7233,16 +7240,15 @@
       <c r="BG13" s="5"/>
       <c r="BH13" s="5"/>
       <c r="BI13" s="5"/>
-      <c r="BJ13" s="5"/>
-      <c r="BK13" s="9" t="s">
+      <c r="BJ13" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="BL13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="BM13" s="5"/>
-    </row>
-    <row r="14" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BL13" s="5"/>
+    </row>
+    <row r="14" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -7254,55 +7260,55 @@
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
+      <c r="J14" s="9" t="s">
+        <v>302</v>
+      </c>
       <c r="K14" s="9" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="L14" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="M14" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="N14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9" t="s">
+        <v>312</v>
+      </c>
       <c r="O14" s="9" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>329</v>
+        <v>72</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T14" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U14" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V14" s="9" t="s">
-        <v>79</v>
+        <v>332</v>
       </c>
       <c r="W14" s="9" t="s">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="X14" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="Y14" s="9" t="s">
         <v>340</v>
       </c>
+      <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="9" t="s">
+      <c r="AA14" s="9" t="s">
         <v>318</v>
       </c>
+      <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
       <c r="AD14" s="9"/>
       <c r="AE14" s="9"/>
@@ -7328,7 +7334,7 @@
       <c r="AY14" s="9"/>
       <c r="AZ14" s="9"/>
       <c r="BA14" s="9"/>
-      <c r="BB14" s="9"/>
+      <c r="BB14" s="5"/>
       <c r="BC14" s="5"/>
       <c r="BD14" s="5"/>
       <c r="BE14" s="5"/>
@@ -7336,16 +7342,15 @@
       <c r="BG14" s="5"/>
       <c r="BH14" s="5"/>
       <c r="BI14" s="5"/>
-      <c r="BJ14" s="5"/>
-      <c r="BK14" s="9" t="s">
+      <c r="BJ14" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK14" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="BL14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="BM14" s="5"/>
-    </row>
-    <row r="15" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BL14" s="5"/>
+    </row>
+    <row r="15" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -7357,53 +7362,53 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
+      <c r="J15" s="9" t="s">
+        <v>303</v>
+      </c>
       <c r="K15" s="9" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="L15" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="M15" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="N15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9" t="s">
+        <v>312</v>
+      </c>
       <c r="O15" s="9" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>330</v>
+        <v>72</v>
       </c>
       <c r="Q15" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="R15" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="S15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="T15" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U15" s="9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="V15" s="9" t="s">
-        <v>81</v>
+        <v>332</v>
       </c>
       <c r="W15" s="9" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
       <c r="X15" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="Y15" s="9" t="s">
         <v>335</v>
       </c>
+      <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
-      <c r="AA15" s="9"/>
-      <c r="AB15" s="9" t="s">
+      <c r="AA15" s="9" t="s">
         <v>319</v>
       </c>
+      <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
       <c r="AD15" s="9"/>
       <c r="AE15" s="9"/>
@@ -7429,7 +7434,7 @@
       <c r="AY15" s="9"/>
       <c r="AZ15" s="9"/>
       <c r="BA15" s="9"/>
-      <c r="BB15" s="9"/>
+      <c r="BB15" s="5"/>
       <c r="BC15" s="5"/>
       <c r="BD15" s="5"/>
       <c r="BE15" s="5"/>
@@ -7437,16 +7442,15 @@
       <c r="BG15" s="5"/>
       <c r="BH15" s="5"/>
       <c r="BI15" s="5"/>
-      <c r="BJ15" s="5"/>
-      <c r="BK15" s="9" t="s">
+      <c r="BJ15" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="BL15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="BM15" s="5"/>
-    </row>
-    <row r="16" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BL15" s="5"/>
+    </row>
+    <row r="16" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -7458,55 +7462,55 @@
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
+      <c r="J16" s="9" t="s">
+        <v>304</v>
+      </c>
       <c r="K16" s="9" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="L16" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="M16" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="N16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9" t="s">
+        <v>312</v>
+      </c>
       <c r="O16" s="9" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>327</v>
+        <v>72</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="T16" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U16" s="9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="V16" s="9" t="s">
-        <v>81</v>
+        <v>332</v>
       </c>
       <c r="W16" s="9" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="X16" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="Y16" s="9" t="s">
         <v>342</v>
       </c>
+      <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
-      <c r="AA16" s="9"/>
-      <c r="AB16" s="9" t="s">
+      <c r="AA16" s="9" t="s">
         <v>320</v>
       </c>
+      <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
       <c r="AD16" s="9"/>
       <c r="AE16" s="9"/>
@@ -7532,7 +7536,7 @@
       <c r="AY16" s="9"/>
       <c r="AZ16" s="9"/>
       <c r="BA16" s="9"/>
-      <c r="BB16" s="9"/>
+      <c r="BB16" s="5"/>
       <c r="BC16" s="5"/>
       <c r="BD16" s="5"/>
       <c r="BE16" s="5"/>
@@ -7540,16 +7544,15 @@
       <c r="BG16" s="5"/>
       <c r="BH16" s="5"/>
       <c r="BI16" s="5"/>
-      <c r="BJ16" s="5"/>
-      <c r="BK16" s="9" t="s">
+      <c r="BJ16" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="BL16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="BM16" s="5"/>
-    </row>
-    <row r="17" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BL16" s="5"/>
+    </row>
+    <row r="17" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
@@ -7561,55 +7564,55 @@
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
+      <c r="J17" s="9" t="s">
+        <v>305</v>
+      </c>
       <c r="K17" s="9" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="L17" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="M17" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="N17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9" t="s">
+        <v>312</v>
+      </c>
       <c r="O17" s="9" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>328</v>
+        <v>72</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R17" s="9" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="S17" s="9" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="T17" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U17" s="9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="V17" s="9" t="s">
-        <v>81</v>
+        <v>332</v>
       </c>
       <c r="W17" s="9" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="X17" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="Y17" s="9" t="s">
         <v>343</v>
       </c>
+      <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
-      <c r="AA17" s="9"/>
-      <c r="AB17" s="9" t="s">
+      <c r="AA17" s="9" t="s">
         <v>321</v>
       </c>
+      <c r="AB17" s="9"/>
       <c r="AC17" s="9"/>
       <c r="AD17" s="9"/>
       <c r="AE17" s="9"/>
@@ -7635,7 +7638,7 @@
       <c r="AY17" s="9"/>
       <c r="AZ17" s="9"/>
       <c r="BA17" s="9"/>
-      <c r="BB17" s="9"/>
+      <c r="BB17" s="5"/>
       <c r="BC17" s="5"/>
       <c r="BD17" s="5"/>
       <c r="BE17" s="5"/>
@@ -7643,16 +7646,15 @@
       <c r="BG17" s="5"/>
       <c r="BH17" s="5"/>
       <c r="BI17" s="5"/>
-      <c r="BJ17" s="5"/>
-      <c r="BK17" s="9" t="s">
+      <c r="BJ17" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="BL17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="BM17" s="5"/>
-    </row>
-    <row r="18" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BL17" s="5"/>
+    </row>
+    <row r="18" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
@@ -7664,55 +7666,55 @@
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
+      <c r="J18" s="9" t="s">
+        <v>306</v>
+      </c>
       <c r="K18" s="9" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="L18" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="M18" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="N18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9" t="s">
+        <v>312</v>
+      </c>
       <c r="O18" s="9" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="P18" s="9" t="s">
-        <v>329</v>
+        <v>72</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R18" s="9" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="S18" s="9" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="T18" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U18" s="9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="V18" s="9" t="s">
-        <v>81</v>
+        <v>332</v>
       </c>
       <c r="W18" s="9" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="X18" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="Y18" s="9" t="s">
         <v>341</v>
       </c>
+      <c r="Y18" s="9"/>
       <c r="Z18" s="9"/>
-      <c r="AA18" s="9"/>
-      <c r="AB18" s="9" t="s">
+      <c r="AA18" s="9" t="s">
         <v>322</v>
       </c>
+      <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
       <c r="AD18" s="9"/>
       <c r="AE18" s="9"/>
@@ -7738,7 +7740,7 @@
       <c r="AY18" s="9"/>
       <c r="AZ18" s="9"/>
       <c r="BA18" s="9"/>
-      <c r="BB18" s="9"/>
+      <c r="BB18" s="5"/>
       <c r="BC18" s="5"/>
       <c r="BD18" s="5"/>
       <c r="BE18" s="5"/>
@@ -7746,16 +7748,15 @@
       <c r="BG18" s="5"/>
       <c r="BH18" s="5"/>
       <c r="BI18" s="5"/>
-      <c r="BJ18" s="5"/>
-      <c r="BK18" s="9" t="s">
+      <c r="BJ18" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="BL18" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="BM18" s="5"/>
-    </row>
-    <row r="19" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BL18" s="5"/>
+    </row>
+    <row r="19" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
@@ -7767,53 +7768,53 @@
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
+      <c r="J19" s="9" t="s">
+        <v>307</v>
+      </c>
       <c r="K19" s="9" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="L19" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="M19" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="N19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9" t="s">
+        <v>312</v>
+      </c>
       <c r="O19" s="9" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="P19" s="9" t="s">
-        <v>330</v>
+        <v>72</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R19" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="S19" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="T19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9" t="s">
+        <v>78</v>
+      </c>
       <c r="U19" s="9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="V19" s="9" t="s">
-        <v>81</v>
+        <v>332</v>
       </c>
       <c r="W19" s="9" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="X19" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="Y19" s="9" t="s">
         <v>336</v>
       </c>
+      <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
-      <c r="AA19" s="9"/>
-      <c r="AB19" s="9" t="s">
+      <c r="AA19" s="9" t="s">
         <v>323</v>
       </c>
+      <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
       <c r="AD19" s="9"/>
       <c r="AE19" s="9"/>
@@ -7839,7 +7840,7 @@
       <c r="AY19" s="9"/>
       <c r="AZ19" s="9"/>
       <c r="BA19" s="9"/>
-      <c r="BB19" s="9"/>
+      <c r="BB19" s="5"/>
       <c r="BC19" s="5"/>
       <c r="BD19" s="5"/>
       <c r="BE19" s="5"/>
@@ -7847,16 +7848,15 @@
       <c r="BG19" s="5"/>
       <c r="BH19" s="5"/>
       <c r="BI19" s="5"/>
-      <c r="BJ19" s="5"/>
-      <c r="BK19" s="9" t="s">
+      <c r="BJ19" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="BL19" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="BM19" s="5"/>
-    </row>
-    <row r="20" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BL19" s="5"/>
+    </row>
+    <row r="20" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
@@ -7868,55 +7868,55 @@
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
+      <c r="J20" s="9" t="s">
+        <v>308</v>
+      </c>
       <c r="K20" s="9" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="L20" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="M20" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="N20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9" t="s">
+        <v>312</v>
+      </c>
       <c r="O20" s="9" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>327</v>
+        <v>72</v>
       </c>
       <c r="Q20" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R20" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S20" s="9" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="T20" s="9" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="U20" s="9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="V20" s="9" t="s">
-        <v>81</v>
+        <v>332</v>
       </c>
       <c r="W20" s="9" t="s">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="X20" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="Y20" s="9" t="s">
         <v>344</v>
       </c>
+      <c r="Y20" s="9"/>
       <c r="Z20" s="9"/>
-      <c r="AA20" s="9"/>
-      <c r="AB20" s="9" t="s">
+      <c r="AA20" s="9" t="s">
         <v>324</v>
       </c>
+      <c r="AB20" s="9"/>
       <c r="AC20" s="9"/>
       <c r="AD20" s="9"/>
       <c r="AE20" s="9"/>
@@ -7942,7 +7942,7 @@
       <c r="AY20" s="9"/>
       <c r="AZ20" s="9"/>
       <c r="BA20" s="9"/>
-      <c r="BB20" s="9"/>
+      <c r="BB20" s="5"/>
       <c r="BC20" s="5"/>
       <c r="BD20" s="5"/>
       <c r="BE20" s="5"/>
@@ -7950,16 +7950,15 @@
       <c r="BG20" s="5"/>
       <c r="BH20" s="5"/>
       <c r="BI20" s="5"/>
-      <c r="BJ20" s="5"/>
-      <c r="BK20" s="9" t="s">
+      <c r="BJ20" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="BL20" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="BM20" s="5"/>
-    </row>
-    <row r="21" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BL20" s="5"/>
+    </row>
+    <row r="21" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
@@ -7971,55 +7970,55 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
+      <c r="J21" s="9" t="s">
+        <v>309</v>
+      </c>
       <c r="K21" s="9" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L21" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="M21" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="N21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9" t="s">
+        <v>312</v>
+      </c>
       <c r="O21" s="9" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="P21" s="9" t="s">
-        <v>328</v>
+        <v>72</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S21" s="9" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="T21" s="9" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="U21" s="9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="V21" s="9" t="s">
-        <v>81</v>
+        <v>332</v>
       </c>
       <c r="W21" s="9" t="s">
-        <v>332</v>
+        <v>372</v>
       </c>
       <c r="X21" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="Y21" s="9" t="s">
         <v>344</v>
       </c>
+      <c r="Y21" s="9"/>
       <c r="Z21" s="9"/>
-      <c r="AA21" s="9"/>
-      <c r="AB21" s="9" t="s">
+      <c r="AA21" s="9" t="s">
         <v>326</v>
       </c>
+      <c r="AB21" s="9"/>
       <c r="AC21" s="9"/>
       <c r="AD21" s="9"/>
       <c r="AE21" s="9"/>
@@ -8045,7 +8044,7 @@
       <c r="AY21" s="9"/>
       <c r="AZ21" s="9"/>
       <c r="BA21" s="9"/>
-      <c r="BB21" s="9"/>
+      <c r="BB21" s="5"/>
       <c r="BC21" s="5"/>
       <c r="BD21" s="5"/>
       <c r="BE21" s="5"/>
@@ -8053,16 +8052,15 @@
       <c r="BG21" s="5"/>
       <c r="BH21" s="5"/>
       <c r="BI21" s="5"/>
-      <c r="BJ21" s="5"/>
-      <c r="BK21" s="9" t="s">
+      <c r="BJ21" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK21" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="BL21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="BM21" s="5"/>
-    </row>
-    <row r="22" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BL21" s="5"/>
+    </row>
+    <row r="22" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>51</v>
       </c>
@@ -8074,50 +8072,50 @@
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
+      <c r="J22" s="9" t="s">
+        <v>112</v>
+      </c>
       <c r="K22" s="9" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="L22" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="M22" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="N22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9" t="s">
+        <v>312</v>
+      </c>
       <c r="O22" s="9" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="P22" s="9" t="s">
-        <v>327</v>
+        <v>72</v>
       </c>
       <c r="Q22" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R22" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S22" s="9" t="s">
-        <v>75</v>
+        <v>347</v>
       </c>
       <c r="T22" s="9" t="s">
-        <v>347</v>
+        <v>78</v>
       </c>
       <c r="U22" s="9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="V22" s="9" t="s">
-        <v>81</v>
+        <v>332</v>
       </c>
       <c r="W22" s="9" t="s">
-        <v>332</v>
+        <v>373</v>
       </c>
       <c r="X22" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="Y22" s="9" t="s">
         <v>346</v>
       </c>
+      <c r="Y22" s="9"/>
       <c r="Z22" s="9"/>
       <c r="AA22" s="9"/>
       <c r="AB22" s="9"/>
@@ -8146,7 +8144,7 @@
       <c r="AY22" s="9"/>
       <c r="AZ22" s="9"/>
       <c r="BA22" s="9"/>
-      <c r="BB22" s="9"/>
+      <c r="BB22" s="5"/>
       <c r="BC22" s="5"/>
       <c r="BD22" s="5"/>
       <c r="BE22" s="5"/>
@@ -8154,16 +8152,15 @@
       <c r="BG22" s="5"/>
       <c r="BH22" s="5"/>
       <c r="BI22" s="5"/>
-      <c r="BJ22" s="5"/>
-      <c r="BK22" s="9" t="s">
+      <c r="BJ22" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK22" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="BL22" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="BM22" s="5"/>
-    </row>
-    <row r="23" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BL22" s="5"/>
+    </row>
+    <row r="23" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>52</v>
       </c>
@@ -8175,50 +8172,50 @@
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
+      <c r="J23" s="9" t="s">
+        <v>136</v>
+      </c>
       <c r="K23" s="9" t="s">
-        <v>136</v>
+        <v>312</v>
       </c>
       <c r="L23" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="M23" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="N23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9" t="s">
+        <v>312</v>
+      </c>
       <c r="O23" s="9" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="P23" s="9" t="s">
-        <v>328</v>
+        <v>72</v>
       </c>
       <c r="Q23" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R23" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S23" s="9" t="s">
-        <v>75</v>
+        <v>348</v>
       </c>
       <c r="T23" s="9" t="s">
-        <v>348</v>
+        <v>78</v>
       </c>
       <c r="U23" s="9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="V23" s="9" t="s">
-        <v>81</v>
+        <v>332</v>
       </c>
       <c r="W23" s="9" t="s">
-        <v>332</v>
+        <v>374</v>
       </c>
       <c r="X23" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="Y23" s="9" t="s">
         <v>346</v>
       </c>
+      <c r="Y23" s="9"/>
       <c r="Z23" s="9"/>
       <c r="AA23" s="9"/>
       <c r="AB23" s="9"/>
@@ -8247,7 +8244,7 @@
       <c r="AY23" s="9"/>
       <c r="AZ23" s="9"/>
       <c r="BA23" s="9"/>
-      <c r="BB23" s="9"/>
+      <c r="BB23" s="5"/>
       <c r="BC23" s="5"/>
       <c r="BD23" s="5"/>
       <c r="BE23" s="5"/>
@@ -8255,16 +8252,15 @@
       <c r="BG23" s="5"/>
       <c r="BH23" s="5"/>
       <c r="BI23" s="5"/>
-      <c r="BJ23" s="5"/>
-      <c r="BK23" s="9" t="s">
+      <c r="BJ23" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK23" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="BL23" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="BM23" s="5"/>
-    </row>
-    <row r="24" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BL23" s="5"/>
+    </row>
+    <row r="24" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>53</v>
       </c>
@@ -8276,53 +8272,53 @@
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
+      <c r="J24" s="9" t="s">
+        <v>310</v>
+      </c>
       <c r="K24" s="9" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L24" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="M24" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="N24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9" t="s">
+        <v>312</v>
+      </c>
       <c r="O24" s="9" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="P24" s="9" t="s">
-        <v>329</v>
+        <v>72</v>
       </c>
       <c r="Q24" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R24" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S24" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="T24" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="U24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="V24" s="9" t="s">
-        <v>81</v>
+        <v>332</v>
       </c>
       <c r="W24" s="9" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="X24" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="Y24" s="9" t="s">
         <v>337</v>
       </c>
+      <c r="Y24" s="9"/>
       <c r="Z24" s="9"/>
-      <c r="AA24" s="9"/>
-      <c r="AB24" s="9" t="s">
+      <c r="AA24" s="9" t="s">
         <v>325</v>
       </c>
+      <c r="AB24" s="9"/>
       <c r="AC24" s="9"/>
       <c r="AD24" s="9"/>
       <c r="AE24" s="9"/>
@@ -8348,7 +8344,7 @@
       <c r="AY24" s="9"/>
       <c r="AZ24" s="9"/>
       <c r="BA24" s="9"/>
-      <c r="BB24" s="9"/>
+      <c r="BB24" s="5"/>
       <c r="BC24" s="5"/>
       <c r="BD24" s="5"/>
       <c r="BE24" s="5"/>
@@ -8356,16 +8352,15 @@
       <c r="BG24" s="5"/>
       <c r="BH24" s="5"/>
       <c r="BI24" s="5"/>
-      <c r="BJ24" s="5"/>
-      <c r="BK24" s="9" t="s">
+      <c r="BJ24" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK24" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="BL24" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="BM24" s="5"/>
-    </row>
-    <row r="25" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BL24" s="5"/>
+    </row>
+    <row r="25" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>54</v>
       </c>
@@ -8377,50 +8372,50 @@
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
+      <c r="J25" s="9" t="s">
+        <v>112</v>
+      </c>
       <c r="K25" s="9" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="L25" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="M25" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="N25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9" t="s">
+        <v>312</v>
+      </c>
       <c r="O25" s="9" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="P25" s="9" t="s">
-        <v>327</v>
+        <v>72</v>
       </c>
       <c r="Q25" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R25" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S25" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T25" s="9" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="U25" s="9" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="V25" s="9" t="s">
-        <v>81</v>
+        <v>332</v>
       </c>
       <c r="W25" s="9" t="s">
-        <v>332</v>
+        <v>376</v>
       </c>
       <c r="X25" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="Y25" s="9" t="s">
         <v>345</v>
       </c>
+      <c r="Y25" s="9"/>
       <c r="Z25" s="9"/>
       <c r="AA25" s="9"/>
       <c r="AB25" s="9"/>
@@ -8449,7 +8444,7 @@
       <c r="AY25" s="9"/>
       <c r="AZ25" s="9"/>
       <c r="BA25" s="9"/>
-      <c r="BB25" s="9"/>
+      <c r="BB25" s="5"/>
       <c r="BC25" s="5"/>
       <c r="BD25" s="5"/>
       <c r="BE25" s="5"/>
@@ -8457,16 +8452,15 @@
       <c r="BG25" s="5"/>
       <c r="BH25" s="5"/>
       <c r="BI25" s="5"/>
-      <c r="BJ25" s="5"/>
-      <c r="BK25" s="9" t="s">
+      <c r="BJ25" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK25" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="BL25" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="BM25" s="5"/>
-    </row>
-    <row r="26" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BL25" s="5"/>
+    </row>
+    <row r="26" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>55</v>
       </c>
@@ -8478,50 +8472,50 @@
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
+      <c r="J26" s="9" t="s">
+        <v>136</v>
+      </c>
       <c r="K26" s="9" t="s">
-        <v>136</v>
+        <v>312</v>
       </c>
       <c r="L26" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="M26" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="N26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9" t="s">
+        <v>312</v>
+      </c>
       <c r="O26" s="9" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="P26" s="9" t="s">
-        <v>328</v>
+        <v>72</v>
       </c>
       <c r="Q26" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R26" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S26" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T26" s="9" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="U26" s="9" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="V26" s="9" t="s">
-        <v>81</v>
+        <v>332</v>
       </c>
       <c r="W26" s="9" t="s">
-        <v>332</v>
+        <v>377</v>
       </c>
       <c r="X26" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="Y26" s="9" t="s">
         <v>384</v>
       </c>
+      <c r="Y26" s="9"/>
       <c r="Z26" s="9"/>
       <c r="AA26" s="9"/>
       <c r="AB26" s="9"/>
@@ -8550,7 +8544,7 @@
       <c r="AY26" s="9"/>
       <c r="AZ26" s="9"/>
       <c r="BA26" s="9"/>
-      <c r="BB26" s="9"/>
+      <c r="BB26" s="5"/>
       <c r="BC26" s="5"/>
       <c r="BD26" s="5"/>
       <c r="BE26" s="5"/>
@@ -8558,16 +8552,15 @@
       <c r="BG26" s="5"/>
       <c r="BH26" s="5"/>
       <c r="BI26" s="5"/>
-      <c r="BJ26" s="5"/>
-      <c r="BK26" s="9" t="s">
+      <c r="BJ26" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK26" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="BL26" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="BM26" s="5"/>
-    </row>
-    <row r="27" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BL26" s="5"/>
+    </row>
+    <row r="27" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>56</v>
       </c>
@@ -8579,48 +8572,48 @@
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
+      <c r="J27" s="9" t="s">
+        <v>145</v>
+      </c>
       <c r="K27" s="9" t="s">
-        <v>145</v>
+        <v>312</v>
       </c>
       <c r="L27" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="M27" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="N27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9" t="s">
+        <v>312</v>
+      </c>
       <c r="O27" s="9" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="P27" s="9" t="s">
-        <v>329</v>
+        <v>72</v>
       </c>
       <c r="Q27" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R27" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S27" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T27" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="U27" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="V27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9" t="s">
+        <v>332</v>
+      </c>
       <c r="W27" s="9" t="s">
-        <v>332</v>
+        <v>378</v>
       </c>
       <c r="X27" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="Y27" s="9" t="s">
         <v>106</v>
       </c>
+      <c r="Y27" s="9"/>
       <c r="Z27" s="9"/>
       <c r="AA27" s="9"/>
       <c r="AB27" s="9"/>
@@ -8649,7 +8642,7 @@
       <c r="AY27" s="9"/>
       <c r="AZ27" s="9"/>
       <c r="BA27" s="9"/>
-      <c r="BB27" s="9"/>
+      <c r="BB27" s="5"/>
       <c r="BC27" s="5"/>
       <c r="BD27" s="5"/>
       <c r="BE27" s="5"/>
@@ -8657,16 +8650,15 @@
       <c r="BG27" s="5"/>
       <c r="BH27" s="5"/>
       <c r="BI27" s="5"/>
-      <c r="BJ27" s="5"/>
-      <c r="BK27" s="9" t="s">
+      <c r="BJ27" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK27" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="BL27" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="BM27" s="5"/>
-    </row>
-    <row r="28" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BL27" s="5"/>
+    </row>
+    <row r="28" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>57</v>
       </c>
@@ -8678,50 +8670,50 @@
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
+      <c r="J28" s="9" t="s">
+        <v>169</v>
+      </c>
       <c r="K28" s="9" t="s">
-        <v>169</v>
+        <v>312</v>
       </c>
       <c r="L28" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="M28" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="N28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9" t="s">
+        <v>312</v>
+      </c>
       <c r="O28" s="9" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="P28" s="9" t="s">
-        <v>330</v>
+        <v>72</v>
       </c>
       <c r="Q28" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R28" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S28" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T28" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U28" s="9" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="V28" s="9" t="s">
-        <v>108</v>
+        <v>332</v>
       </c>
       <c r="W28" s="9" t="s">
-        <v>332</v>
+        <v>379</v>
       </c>
       <c r="X28" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="Y28" s="9" t="s">
         <v>107</v>
       </c>
+      <c r="Y28" s="9"/>
       <c r="Z28" s="9"/>
       <c r="AA28" s="9"/>
       <c r="AB28" s="9"/>
@@ -8750,7 +8742,7 @@
       <c r="AY28" s="9"/>
       <c r="AZ28" s="9"/>
       <c r="BA28" s="9"/>
-      <c r="BB28" s="9"/>
+      <c r="BB28" s="5"/>
       <c r="BC28" s="5"/>
       <c r="BD28" s="5"/>
       <c r="BE28" s="5"/>
@@ -8758,16 +8750,15 @@
       <c r="BG28" s="5"/>
       <c r="BH28" s="5"/>
       <c r="BI28" s="5"/>
-      <c r="BJ28" s="5"/>
-      <c r="BK28" s="9" t="s">
+      <c r="BJ28" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK28" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="BL28" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="BM28" s="5"/>
-    </row>
-    <row r="29" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BL28" s="5"/>
+    </row>
+    <row r="29" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>58</v>
       </c>
@@ -8779,46 +8770,46 @@
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
+      <c r="J29" s="9" t="s">
+        <v>136</v>
+      </c>
       <c r="K29" s="9" t="s">
-        <v>136</v>
+        <v>312</v>
       </c>
       <c r="L29" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="M29" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="N29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9" t="s">
+        <v>312</v>
+      </c>
       <c r="O29" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="P29" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="Q29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="R29" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S29" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T29" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U29" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="V29" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="W29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9" t="s">
+        <v>380</v>
+      </c>
       <c r="X29" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="Y29" s="9" t="s">
         <v>349</v>
       </c>
+      <c r="Y29" s="9"/>
       <c r="Z29" s="9"/>
       <c r="AA29" s="9"/>
       <c r="AB29" s="9"/>
@@ -8847,7 +8838,7 @@
       <c r="AY29" s="9"/>
       <c r="AZ29" s="9"/>
       <c r="BA29" s="9"/>
-      <c r="BB29" s="9"/>
+      <c r="BB29" s="5"/>
       <c r="BC29" s="5"/>
       <c r="BD29" s="5"/>
       <c r="BE29" s="5"/>
@@ -8855,16 +8846,15 @@
       <c r="BG29" s="5"/>
       <c r="BH29" s="5"/>
       <c r="BI29" s="5"/>
-      <c r="BJ29" s="5"/>
-      <c r="BK29" s="9" t="s">
+      <c r="BJ29" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK29" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="BL29" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="BM29" s="5"/>
-    </row>
-    <row r="30" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BL29" s="5"/>
+    </row>
+    <row r="30" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>109</v>
       </c>
@@ -8876,50 +8866,50 @@
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
+      <c r="J30" s="9" t="s">
+        <v>145</v>
+      </c>
       <c r="K30" s="9" t="s">
-        <v>145</v>
+        <v>312</v>
       </c>
       <c r="L30" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="M30" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="N30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9" t="s">
+        <v>312</v>
+      </c>
       <c r="O30" s="9" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="P30" s="9" t="s">
-        <v>329</v>
+        <v>84</v>
       </c>
       <c r="Q30" s="9" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="R30" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S30" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T30" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U30" s="9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="V30" s="9" t="s">
-        <v>81</v>
+        <v>353</v>
       </c>
       <c r="W30" s="9" t="s">
-        <v>353</v>
+        <v>381</v>
       </c>
       <c r="X30" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="Y30" s="9" t="s">
         <v>350</v>
       </c>
+      <c r="Y30" s="9"/>
       <c r="Z30" s="9"/>
       <c r="AA30" s="9"/>
       <c r="AB30" s="9"/>
@@ -8948,7 +8938,7 @@
       <c r="AY30" s="9"/>
       <c r="AZ30" s="9"/>
       <c r="BA30" s="9"/>
-      <c r="BB30" s="9"/>
+      <c r="BB30" s="5"/>
       <c r="BC30" s="5"/>
       <c r="BD30" s="5"/>
       <c r="BE30" s="5"/>
@@ -8956,16 +8946,15 @@
       <c r="BG30" s="5"/>
       <c r="BH30" s="5"/>
       <c r="BI30" s="5"/>
-      <c r="BJ30" s="5"/>
-      <c r="BK30" s="9" t="s">
+      <c r="BJ30" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK30" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="BL30" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="BM30" s="5"/>
-    </row>
-    <row r="31" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BL30" s="5"/>
+    </row>
+    <row r="31" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>352</v>
       </c>
@@ -8977,50 +8966,50 @@
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
+      <c r="J31" s="9" t="s">
+        <v>169</v>
+      </c>
       <c r="K31" s="9" t="s">
-        <v>169</v>
+        <v>312</v>
       </c>
       <c r="L31" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="M31" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="N31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9" t="s">
+        <v>312</v>
+      </c>
       <c r="O31" s="9" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="P31" s="9" t="s">
-        <v>330</v>
+        <v>72</v>
       </c>
       <c r="Q31" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R31" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S31" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T31" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U31" s="9" t="s">
-        <v>78</v>
+        <v>385</v>
       </c>
       <c r="V31" s="9" t="s">
-        <v>385</v>
+        <v>332</v>
       </c>
       <c r="W31" s="9" t="s">
-        <v>332</v>
+        <v>382</v>
       </c>
       <c r="X31" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="Y31" s="9" t="s">
         <v>351</v>
       </c>
+      <c r="Y31" s="9"/>
       <c r="Z31" s="9"/>
       <c r="AA31" s="9"/>
       <c r="AB31" s="9"/>
@@ -9049,7 +9038,7 @@
       <c r="AY31" s="9"/>
       <c r="AZ31" s="9"/>
       <c r="BA31" s="9"/>
-      <c r="BB31" s="9"/>
+      <c r="BB31" s="5"/>
       <c r="BC31" s="5"/>
       <c r="BD31" s="5"/>
       <c r="BE31" s="5"/>
@@ -9057,16 +9046,15 @@
       <c r="BG31" s="5"/>
       <c r="BH31" s="5"/>
       <c r="BI31" s="5"/>
-      <c r="BJ31" s="5"/>
-      <c r="BK31" s="9" t="s">
+      <c r="BJ31" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK31" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="BL31" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="BM31" s="5"/>
-    </row>
-    <row r="32" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BL31" s="5"/>
+    </row>
+    <row r="32" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>354</v>
       </c>
@@ -9078,50 +9066,50 @@
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
+      <c r="J32" s="9" t="s">
+        <v>169</v>
+      </c>
       <c r="K32" s="9" t="s">
-        <v>169</v>
+        <v>312</v>
       </c>
       <c r="L32" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="M32" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="N32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9" t="s">
+        <v>312</v>
+      </c>
       <c r="O32" s="9" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="P32" s="9" t="s">
-        <v>330</v>
+        <v>72</v>
       </c>
       <c r="Q32" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R32" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S32" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T32" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U32" s="9" t="s">
-        <v>78</v>
+        <v>387</v>
       </c>
       <c r="V32" s="9" t="s">
-        <v>387</v>
+        <v>332</v>
       </c>
       <c r="W32" s="9" t="s">
-        <v>332</v>
+        <v>383</v>
       </c>
       <c r="X32" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="Y32" s="9" t="s">
         <v>386</v>
       </c>
+      <c r="Y32" s="9"/>
       <c r="Z32" s="9"/>
       <c r="AA32" s="9"/>
       <c r="AB32" s="9"/>
@@ -9150,7 +9138,7 @@
       <c r="AY32" s="9"/>
       <c r="AZ32" s="9"/>
       <c r="BA32" s="9"/>
-      <c r="BB32" s="9"/>
+      <c r="BB32" s="5"/>
       <c r="BC32" s="5"/>
       <c r="BD32" s="5"/>
       <c r="BE32" s="5"/>
@@ -9158,16 +9146,15 @@
       <c r="BG32" s="5"/>
       <c r="BH32" s="5"/>
       <c r="BI32" s="5"/>
-      <c r="BJ32" s="5"/>
-      <c r="BK32" s="9" t="s">
+      <c r="BJ32" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK32" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="BL32" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="BM32" s="5"/>
-    </row>
-    <row r="33" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BL32" s="5"/>
+    </row>
+    <row r="33" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>355</v>
       </c>
@@ -9179,46 +9166,46 @@
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
+      <c r="J33" s="9" t="s">
+        <v>169</v>
+      </c>
       <c r="K33" s="9" t="s">
-        <v>169</v>
+        <v>312</v>
       </c>
       <c r="L33" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="M33" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="N33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9" t="s">
+        <v>312</v>
+      </c>
       <c r="O33" s="9" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="P33" s="9" t="s">
-        <v>330</v>
+        <v>72</v>
       </c>
       <c r="Q33" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R33" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S33" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T33" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="U33" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="V33" s="9"/>
-      <c r="W33" s="9" t="s">
+      <c r="U33" s="9"/>
+      <c r="V33" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="X33" s="9"/>
-      <c r="Y33" s="9" t="s">
+      <c r="W33" s="9"/>
+      <c r="X33" s="9" t="s">
         <v>106</v>
       </c>
+      <c r="Y33" s="9"/>
       <c r="Z33" s="9"/>
       <c r="AA33" s="9"/>
       <c r="AB33" s="9"/>
@@ -9247,7 +9234,7 @@
       <c r="AY33" s="9"/>
       <c r="AZ33" s="9"/>
       <c r="BA33" s="9"/>
-      <c r="BB33" s="9"/>
+      <c r="BB33" s="5"/>
       <c r="BC33" s="5"/>
       <c r="BD33" s="5"/>
       <c r="BE33" s="5"/>
@@ -9255,97 +9242,96 @@
       <c r="BG33" s="5"/>
       <c r="BH33" s="5"/>
       <c r="BI33" s="5"/>
-      <c r="BJ33" s="5"/>
-      <c r="BK33" s="9" t="s">
+      <c r="BJ33" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK33" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="BL33" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="BM33" s="5"/>
-    </row>
-    <row r="34" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BL33" s="5"/>
+    </row>
+    <row r="34" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="B34" s="9"/>
+      <c r="B34" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="C34" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D34" s="9" t="s">
         <v>26</v>
       </c>
+      <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
+      <c r="J34" s="9" t="s">
+        <v>136</v>
+      </c>
       <c r="K34" s="9" t="s">
-        <v>136</v>
+        <v>312</v>
       </c>
       <c r="L34" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="M34" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="N34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9" t="s">
+        <v>313</v>
+      </c>
       <c r="O34" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="P34" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="Q34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="R34" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S34" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T34" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U34" s="9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="V34" s="9" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="W34" s="9" t="s">
-        <v>59</v>
+        <v>357</v>
       </c>
       <c r="X34" s="9" t="s">
-        <v>357</v>
+        <v>61</v>
       </c>
       <c r="Y34" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="Z34" s="9" t="s">
-        <v>65</v>
+        <v>390</v>
       </c>
       <c r="AA34" s="9" t="s">
-        <v>390</v>
+        <v>137</v>
       </c>
       <c r="AB34" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AC34" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AD34" s="9" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AE34" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AF34" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG34" s="9" t="s">
         <v>141</v>
       </c>
+      <c r="AG34" s="9"/>
       <c r="AH34" s="9"/>
       <c r="AI34" s="9"/>
       <c r="AJ34" s="9"/>
@@ -9366,7 +9352,7 @@
       <c r="AY34" s="9"/>
       <c r="AZ34" s="9"/>
       <c r="BA34" s="9"/>
-      <c r="BB34" s="9"/>
+      <c r="BB34" s="5"/>
       <c r="BC34" s="5"/>
       <c r="BD34" s="5"/>
       <c r="BE34" s="5"/>
@@ -9374,24 +9360,156 @@
       <c r="BG34" s="5"/>
       <c r="BH34" s="5"/>
       <c r="BI34" s="5"/>
-      <c r="BJ34" s="5"/>
-      <c r="BK34" s="9" t="s">
+      <c r="BJ34" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK34" s="5" t="s">
         <v>41</v>
       </c>
       <c r="BL34" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="BM34" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="O35" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="R35" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="S35" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="T35" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="U35" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="V35" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="W35" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="X35" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="AA35" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB35" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC35" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD35" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE35" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF35" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG35" s="9"/>
+      <c r="AH35" s="9"/>
+      <c r="AI35" s="9"/>
+      <c r="AJ35" s="9"/>
+      <c r="AK35" s="9"/>
+      <c r="AL35" s="9"/>
+      <c r="AM35" s="9"/>
+      <c r="AN35" s="9"/>
+      <c r="AO35" s="9"/>
+      <c r="AP35" s="9"/>
+      <c r="AQ35" s="9"/>
+      <c r="AR35" s="9"/>
+      <c r="AS35" s="9"/>
+      <c r="AT35" s="9"/>
+      <c r="AU35" s="9"/>
+      <c r="AV35" s="9"/>
+      <c r="AW35" s="9"/>
+      <c r="AX35" s="9"/>
+      <c r="AY35" s="9"/>
+      <c r="AZ35" s="9"/>
+      <c r="BA35" s="9"/>
+      <c r="BB35" s="5"/>
+      <c r="BC35" s="5"/>
+      <c r="BD35" s="5"/>
+      <c r="BE35" s="5"/>
+      <c r="BF35" s="5"/>
+      <c r="BG35" s="5"/>
+      <c r="BH35" s="5"/>
+      <c r="BI35" s="5"/>
+      <c r="BJ35" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK35" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL35" s="5" t="s">
         <v>144</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:BM1"/>
+    <mergeCell ref="A1:BL1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="V5" r:id="rId1" xr:uid="{9230F4B3-03EA-43CF-92D1-A9EAFEC66288}"/>
+    <hyperlink ref="V35" r:id="rId2" xr:uid="{91332CAA-CD9C-4AF3-B15C-E9D031EFF676}"/>
+    <hyperlink ref="V34" r:id="rId3" xr:uid="{BF8B06E8-9469-4FD3-AD37-A49B3798DB3E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -9399,8 +9517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E03341-BA82-48F5-85F6-5A539F6F98BA}">
   <dimension ref="A1:BP36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9451,76 +9569,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:68" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="28"/>
-      <c r="AO1" s="28"/>
-      <c r="AP1" s="28"/>
-      <c r="AQ1" s="28"/>
-      <c r="AR1" s="28"/>
-      <c r="AS1" s="28"/>
-      <c r="AT1" s="28"/>
-      <c r="AU1" s="28"/>
-      <c r="AV1" s="28"/>
-      <c r="AW1" s="28"/>
-      <c r="AX1" s="28"/>
-      <c r="AY1" s="28"/>
-      <c r="AZ1" s="28"/>
-      <c r="BA1" s="28"/>
-      <c r="BB1" s="28"/>
-      <c r="BC1" s="28"/>
-      <c r="BD1" s="28"/>
-      <c r="BE1" s="28"/>
-      <c r="BF1" s="28"/>
-      <c r="BG1" s="28"/>
-      <c r="BH1" s="28"/>
-      <c r="BI1" s="28"/>
-      <c r="BJ1" s="28"/>
-      <c r="BK1" s="28"/>
-      <c r="BL1" s="28"/>
-      <c r="BM1" s="28"/>
-      <c r="BN1" s="28"/>
-      <c r="BO1" s="28"/>
-      <c r="BP1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="29"/>
+      <c r="AK1" s="29"/>
+      <c r="AL1" s="29"/>
+      <c r="AM1" s="29"/>
+      <c r="AN1" s="29"/>
+      <c r="AO1" s="29"/>
+      <c r="AP1" s="29"/>
+      <c r="AQ1" s="29"/>
+      <c r="AR1" s="29"/>
+      <c r="AS1" s="29"/>
+      <c r="AT1" s="29"/>
+      <c r="AU1" s="29"/>
+      <c r="AV1" s="29"/>
+      <c r="AW1" s="29"/>
+      <c r="AX1" s="29"/>
+      <c r="AY1" s="29"/>
+      <c r="AZ1" s="29"/>
+      <c r="BA1" s="29"/>
+      <c r="BB1" s="29"/>
+      <c r="BC1" s="29"/>
+      <c r="BD1" s="29"/>
+      <c r="BE1" s="29"/>
+      <c r="BF1" s="29"/>
+      <c r="BG1" s="29"/>
+      <c r="BH1" s="29"/>
+      <c r="BI1" s="29"/>
+      <c r="BJ1" s="29"/>
+      <c r="BK1" s="29"/>
+      <c r="BL1" s="29"/>
+      <c r="BM1" s="29"/>
+      <c r="BN1" s="29"/>
+      <c r="BO1" s="29"/>
+      <c r="BP1" s="29"/>
     </row>
     <row r="2" spans="1:68" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
@@ -9870,7 +9988,7 @@
       <c r="BL4" s="5"/>
       <c r="BM4" s="5"/>
       <c r="BN4" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO4" s="5" t="s">
         <v>74</v>
@@ -9920,11 +10038,9 @@
       <c r="P5" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="Q5" s="9" t="s">
-        <v>471</v>
-      </c>
+      <c r="Q5" s="9"/>
       <c r="R5" s="9" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="S5" s="9" t="s">
         <v>426</v>
@@ -10018,7 +10134,7 @@
       <c r="BL5" s="5"/>
       <c r="BM5" s="5"/>
       <c r="BN5" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO5" s="5" t="s">
         <v>74</v>
@@ -10041,39 +10157,39 @@
         <v>395</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>414</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
@@ -10154,7 +10270,7 @@
       <c r="BL6" s="5"/>
       <c r="BM6" s="5"/>
       <c r="BN6" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO6" s="5" t="s">
         <v>74</v>
@@ -10177,38 +10293,38 @@
         <v>395</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>414</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="N7" s="9"/>
       <c r="O7" s="9" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
@@ -10232,7 +10348,7 @@
         <v>434</v>
       </c>
       <c r="AD7" s="9" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="AE7" s="9" t="s">
         <v>115</v>
@@ -10282,7 +10398,7 @@
       <c r="BL7" s="5"/>
       <c r="BM7" s="5"/>
       <c r="BN7" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO7" s="5" t="s">
         <v>41</v>
@@ -10305,25 +10421,25 @@
         <v>395</v>
       </c>
       <c r="G8" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="I8" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="J8" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="K8" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="L8" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="M8" s="9" t="s">
         <v>450</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>451</v>
       </c>
       <c r="N8" s="9" t="s">
         <v>403</v>
@@ -10332,10 +10448,10 @@
         <v>404</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="R8" s="9"/>
       <c r="S8" s="9"/>
@@ -10358,7 +10474,7 @@
       </c>
       <c r="AC8" s="9"/>
       <c r="AD8" s="9" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AE8" s="9" t="s">
         <v>146</v>
@@ -10428,7 +10544,7 @@
       <c r="BL8" s="5"/>
       <c r="BM8" s="5"/>
       <c r="BN8" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO8" s="5" t="s">
         <v>41</v>
@@ -10564,7 +10680,7 @@
       <c r="BL9" s="5"/>
       <c r="BM9" s="5"/>
       <c r="BN9" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO9" s="5" t="s">
         <v>41</v>
@@ -10660,7 +10776,7 @@
       <c r="BL10" s="5"/>
       <c r="BM10" s="5"/>
       <c r="BN10" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO10" s="5" t="s">
         <v>41</v>
@@ -10748,7 +10864,7 @@
       <c r="BL11" s="5"/>
       <c r="BM11" s="5"/>
       <c r="BN11" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO11" s="5" t="s">
         <v>41</v>
@@ -10848,7 +10964,7 @@
       <c r="BL12" s="5"/>
       <c r="BM12" s="5"/>
       <c r="BN12" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO12" s="5" t="s">
         <v>41</v>
@@ -10962,7 +11078,7 @@
       <c r="BL13" s="5"/>
       <c r="BM13" s="5"/>
       <c r="BN13" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO13" s="5" t="s">
         <v>41</v>
@@ -11116,7 +11232,7 @@
       </c>
       <c r="BM14" s="5"/>
       <c r="BN14" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO14" s="5" t="s">
         <v>41</v>
@@ -11232,7 +11348,7 @@
       <c r="BL15" s="5"/>
       <c r="BM15" s="5"/>
       <c r="BN15" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO15" s="5" t="s">
         <v>41</v>
@@ -11318,7 +11434,7 @@
       <c r="BL16" s="5"/>
       <c r="BM16" s="5"/>
       <c r="BN16" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO16" s="5" t="s">
         <v>41</v>
@@ -11404,7 +11520,7 @@
       <c r="BL17" s="5"/>
       <c r="BM17" s="5"/>
       <c r="BN17" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO17" s="5" t="s">
         <v>41</v>
@@ -11490,7 +11606,7 @@
       <c r="BL18" s="5"/>
       <c r="BM18" s="5"/>
       <c r="BN18" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO18" s="5" t="s">
         <v>41</v>
@@ -11576,7 +11692,7 @@
       <c r="BL19" s="5"/>
       <c r="BM19" s="5"/>
       <c r="BN19" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO19" s="5" t="s">
         <v>41</v>
@@ -11662,7 +11778,7 @@
       <c r="BL20" s="5"/>
       <c r="BM20" s="5"/>
       <c r="BN20" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO20" s="5" t="s">
         <v>41</v>
@@ -11748,7 +11864,7 @@
       <c r="BL21" s="5"/>
       <c r="BM21" s="5"/>
       <c r="BN21" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO21" s="5" t="s">
         <v>41</v>
@@ -11834,7 +11950,7 @@
       <c r="BL22" s="5"/>
       <c r="BM22" s="5"/>
       <c r="BN22" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO22" s="5" t="s">
         <v>41</v>
@@ -11920,7 +12036,7 @@
       <c r="BL23" s="5"/>
       <c r="BM23" s="5"/>
       <c r="BN23" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO23" s="5" t="s">
         <v>41</v>
@@ -12004,7 +12120,7 @@
       <c r="BL24" s="5"/>
       <c r="BM24" s="5"/>
       <c r="BN24" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO24" s="5" t="s">
         <v>41</v>
@@ -12088,7 +12204,7 @@
       <c r="BL25" s="5"/>
       <c r="BM25" s="5"/>
       <c r="BN25" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO25" s="5" t="s">
         <v>41</v>
@@ -12174,7 +12290,7 @@
       <c r="BL26" s="5"/>
       <c r="BM26" s="5"/>
       <c r="BN26" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO26" s="5" t="s">
         <v>41</v>
@@ -12258,7 +12374,7 @@
       <c r="BL27" s="5"/>
       <c r="BM27" s="5"/>
       <c r="BN27" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO27" s="5" t="s">
         <v>41</v>
@@ -12342,7 +12458,7 @@
       <c r="BL28" s="5"/>
       <c r="BM28" s="5"/>
       <c r="BN28" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO28" s="5" t="s">
         <v>41</v>
@@ -12426,7 +12542,7 @@
       <c r="BL29" s="5"/>
       <c r="BM29" s="5"/>
       <c r="BN29" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO29" s="5" t="s">
         <v>41</v>
@@ -12510,7 +12626,7 @@
       <c r="BL30" s="5"/>
       <c r="BM30" s="5"/>
       <c r="BN30" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO30" s="5" t="s">
         <v>41</v>
@@ -12594,7 +12710,7 @@
       <c r="BL31" s="5"/>
       <c r="BM31" s="5"/>
       <c r="BN31" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO31" s="5" t="s">
         <v>41</v>
@@ -12678,7 +12794,7 @@
       <c r="BL32" s="5"/>
       <c r="BM32" s="5"/>
       <c r="BN32" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO32" s="5" t="s">
         <v>41</v>
@@ -12762,7 +12878,7 @@
       <c r="BL33" s="5"/>
       <c r="BM33" s="5"/>
       <c r="BN33" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO33" s="5" t="s">
         <v>41</v>
@@ -12846,7 +12962,7 @@
       <c r="BL34" s="5"/>
       <c r="BM34" s="5"/>
       <c r="BN34" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO34" s="5" t="s">
         <v>41</v>
@@ -12930,7 +13046,7 @@
       <c r="BL35" s="5"/>
       <c r="BM35" s="5"/>
       <c r="BN35" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO35" s="5" t="s">
         <v>41</v>
@@ -13032,7 +13148,7 @@
       <c r="BL36" s="5"/>
       <c r="BM36" s="5"/>
       <c r="BN36" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO36" s="5" t="s">
         <v>41</v>
@@ -13055,8 +13171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0BD6BA5-B42C-4BFE-90B2-88EFEC952AF0}">
   <dimension ref="A1:BP36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView topLeftCell="E1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="E7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13105,76 +13221,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:68" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="28"/>
-      <c r="AO1" s="28"/>
-      <c r="AP1" s="28"/>
-      <c r="AQ1" s="28"/>
-      <c r="AR1" s="28"/>
-      <c r="AS1" s="28"/>
-      <c r="AT1" s="28"/>
-      <c r="AU1" s="28"/>
-      <c r="AV1" s="28"/>
-      <c r="AW1" s="28"/>
-      <c r="AX1" s="28"/>
-      <c r="AY1" s="28"/>
-      <c r="AZ1" s="28"/>
-      <c r="BA1" s="28"/>
-      <c r="BB1" s="28"/>
-      <c r="BC1" s="28"/>
-      <c r="BD1" s="28"/>
-      <c r="BE1" s="28"/>
-      <c r="BF1" s="28"/>
-      <c r="BG1" s="28"/>
-      <c r="BH1" s="28"/>
-      <c r="BI1" s="28"/>
-      <c r="BJ1" s="28"/>
-      <c r="BK1" s="28"/>
-      <c r="BL1" s="28"/>
-      <c r="BM1" s="28"/>
-      <c r="BN1" s="28"/>
-      <c r="BO1" s="28"/>
-      <c r="BP1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="29"/>
+      <c r="AK1" s="29"/>
+      <c r="AL1" s="29"/>
+      <c r="AM1" s="29"/>
+      <c r="AN1" s="29"/>
+      <c r="AO1" s="29"/>
+      <c r="AP1" s="29"/>
+      <c r="AQ1" s="29"/>
+      <c r="AR1" s="29"/>
+      <c r="AS1" s="29"/>
+      <c r="AT1" s="29"/>
+      <c r="AU1" s="29"/>
+      <c r="AV1" s="29"/>
+      <c r="AW1" s="29"/>
+      <c r="AX1" s="29"/>
+      <c r="AY1" s="29"/>
+      <c r="AZ1" s="29"/>
+      <c r="BA1" s="29"/>
+      <c r="BB1" s="29"/>
+      <c r="BC1" s="29"/>
+      <c r="BD1" s="29"/>
+      <c r="BE1" s="29"/>
+      <c r="BF1" s="29"/>
+      <c r="BG1" s="29"/>
+      <c r="BH1" s="29"/>
+      <c r="BI1" s="29"/>
+      <c r="BJ1" s="29"/>
+      <c r="BK1" s="29"/>
+      <c r="BL1" s="29"/>
+      <c r="BM1" s="29"/>
+      <c r="BN1" s="29"/>
+      <c r="BO1" s="29"/>
+      <c r="BP1" s="29"/>
     </row>
     <row r="2" spans="1:68" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
@@ -13524,7 +13640,7 @@
       <c r="BL4" s="5"/>
       <c r="BM4" s="5"/>
       <c r="BN4" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO4" s="5" t="s">
         <v>74</v>
@@ -13674,7 +13790,7 @@
       <c r="BL5" s="5"/>
       <c r="BM5" s="5"/>
       <c r="BN5" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO5" s="5" t="s">
         <v>74</v>
@@ -13812,7 +13928,7 @@
       <c r="BL6" s="5"/>
       <c r="BM6" s="5"/>
       <c r="BN6" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO6" s="5" t="s">
         <v>74</v>
@@ -13835,56 +13951,50 @@
         <v>395</v>
       </c>
       <c r="G7" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="I7" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="J7" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="K7" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="L7" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="M7" s="9" t="s">
         <v>450</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>451</v>
       </c>
       <c r="N7" s="9" t="s">
         <v>403</v>
       </c>
       <c r="O7" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="P7" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="P7" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="Q7" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="R7" s="9" t="s">
-        <v>453</v>
-      </c>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
       <c r="S7" s="9" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="T7" s="9" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="U7" s="9" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="V7" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="W7" s="9" t="s">
-        <v>457</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="W7" s="9"/>
       <c r="X7" s="9" t="s">
         <v>136</v>
       </c>
@@ -13901,7 +14011,9 @@
       <c r="AC7" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="AD7" s="9"/>
+      <c r="AD7" s="9" t="s">
+        <v>468</v>
+      </c>
       <c r="AE7" s="9" t="s">
         <v>137</v>
       </c>
@@ -13950,7 +14062,7 @@
       <c r="BL7" s="5"/>
       <c r="BM7" s="5"/>
       <c r="BN7" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO7" s="5" t="s">
         <v>41</v>
@@ -13973,25 +14085,25 @@
         <v>395</v>
       </c>
       <c r="G8" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="I8" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="J8" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="K8" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="L8" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="M8" s="9" t="s">
         <v>450</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>451</v>
       </c>
       <c r="N8" s="9" t="s">
         <v>403</v>
@@ -14000,7 +14112,7 @@
         <v>404</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
@@ -14010,7 +14122,7 @@
       <c r="V8" s="9"/>
       <c r="W8" s="9"/>
       <c r="X8" s="9" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="Y8" s="9" t="s">
         <v>312</v>
@@ -14024,10 +14136,10 @@
       </c>
       <c r="AC8" s="9"/>
       <c r="AD8" s="9" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AE8" s="9" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="AF8" s="9" t="s">
         <v>147</v>
@@ -14094,7 +14206,7 @@
       <c r="BL8" s="5"/>
       <c r="BM8" s="5"/>
       <c r="BN8" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO8" s="5" t="s">
         <v>41</v>
@@ -14230,7 +14342,7 @@
       <c r="BL9" s="5"/>
       <c r="BM9" s="5"/>
       <c r="BN9" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO9" s="5" t="s">
         <v>41</v>
@@ -14326,7 +14438,7 @@
       <c r="BL10" s="5"/>
       <c r="BM10" s="5"/>
       <c r="BN10" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO10" s="5" t="s">
         <v>41</v>
@@ -14414,7 +14526,7 @@
       <c r="BL11" s="5"/>
       <c r="BM11" s="5"/>
       <c r="BN11" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO11" s="5" t="s">
         <v>41</v>
@@ -14514,7 +14626,7 @@
       <c r="BL12" s="5"/>
       <c r="BM12" s="5"/>
       <c r="BN12" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO12" s="5" t="s">
         <v>41</v>
@@ -14628,7 +14740,7 @@
       <c r="BL13" s="5"/>
       <c r="BM13" s="5"/>
       <c r="BN13" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO13" s="5" t="s">
         <v>41</v>
@@ -14782,7 +14894,7 @@
       </c>
       <c r="BM14" s="5"/>
       <c r="BN14" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO14" s="5" t="s">
         <v>41</v>
@@ -14898,7 +15010,7 @@
       <c r="BL15" s="5"/>
       <c r="BM15" s="5"/>
       <c r="BN15" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO15" s="5" t="s">
         <v>41</v>
@@ -14984,7 +15096,7 @@
       <c r="BL16" s="5"/>
       <c r="BM16" s="5"/>
       <c r="BN16" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO16" s="5" t="s">
         <v>41</v>
@@ -15070,7 +15182,7 @@
       <c r="BL17" s="5"/>
       <c r="BM17" s="5"/>
       <c r="BN17" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO17" s="5" t="s">
         <v>41</v>
@@ -15156,7 +15268,7 @@
       <c r="BL18" s="5"/>
       <c r="BM18" s="5"/>
       <c r="BN18" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO18" s="5" t="s">
         <v>41</v>
@@ -15242,7 +15354,7 @@
       <c r="BL19" s="5"/>
       <c r="BM19" s="5"/>
       <c r="BN19" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO19" s="5" t="s">
         <v>41</v>
@@ -15328,7 +15440,7 @@
       <c r="BL20" s="5"/>
       <c r="BM20" s="5"/>
       <c r="BN20" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO20" s="5" t="s">
         <v>41</v>
@@ -15414,7 +15526,7 @@
       <c r="BL21" s="5"/>
       <c r="BM21" s="5"/>
       <c r="BN21" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO21" s="5" t="s">
         <v>41</v>
@@ -15500,7 +15612,7 @@
       <c r="BL22" s="5"/>
       <c r="BM22" s="5"/>
       <c r="BN22" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO22" s="5" t="s">
         <v>41</v>
@@ -15586,7 +15698,7 @@
       <c r="BL23" s="5"/>
       <c r="BM23" s="5"/>
       <c r="BN23" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO23" s="5" t="s">
         <v>41</v>
@@ -15670,7 +15782,7 @@
       <c r="BL24" s="5"/>
       <c r="BM24" s="5"/>
       <c r="BN24" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO24" s="5" t="s">
         <v>41</v>
@@ -15754,7 +15866,7 @@
       <c r="BL25" s="5"/>
       <c r="BM25" s="5"/>
       <c r="BN25" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO25" s="5" t="s">
         <v>41</v>
@@ -15840,7 +15952,7 @@
       <c r="BL26" s="5"/>
       <c r="BM26" s="5"/>
       <c r="BN26" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO26" s="5" t="s">
         <v>41</v>
@@ -15924,7 +16036,7 @@
       <c r="BL27" s="5"/>
       <c r="BM27" s="5"/>
       <c r="BN27" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO27" s="5" t="s">
         <v>41</v>
@@ -16008,7 +16120,7 @@
       <c r="BL28" s="5"/>
       <c r="BM28" s="5"/>
       <c r="BN28" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO28" s="5" t="s">
         <v>41</v>
@@ -16092,7 +16204,7 @@
       <c r="BL29" s="5"/>
       <c r="BM29" s="5"/>
       <c r="BN29" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO29" s="5" t="s">
         <v>41</v>
@@ -16176,7 +16288,7 @@
       <c r="BL30" s="5"/>
       <c r="BM30" s="5"/>
       <c r="BN30" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO30" s="5" t="s">
         <v>41</v>
@@ -16260,7 +16372,7 @@
       <c r="BL31" s="5"/>
       <c r="BM31" s="5"/>
       <c r="BN31" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO31" s="5" t="s">
         <v>41</v>
@@ -16344,7 +16456,7 @@
       <c r="BL32" s="5"/>
       <c r="BM32" s="5"/>
       <c r="BN32" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO32" s="5" t="s">
         <v>41</v>
@@ -16428,7 +16540,7 @@
       <c r="BL33" s="5"/>
       <c r="BM33" s="5"/>
       <c r="BN33" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO33" s="5" t="s">
         <v>41</v>
@@ -16512,7 +16624,7 @@
       <c r="BL34" s="5"/>
       <c r="BM34" s="5"/>
       <c r="BN34" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO34" s="5" t="s">
         <v>41</v>
@@ -16596,7 +16708,7 @@
       <c r="BL35" s="5"/>
       <c r="BM35" s="5"/>
       <c r="BN35" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO35" s="5" t="s">
         <v>41</v>
@@ -16698,7 +16810,7 @@
       <c r="BL36" s="5"/>
       <c r="BM36" s="5"/>
       <c r="BN36" s="9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="BO36" s="5" t="s">
         <v>41</v>
